--- a/Data/prediction-format.xlsx
+++ b/Data/prediction-format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
   <si>
     <t>Pure Background Color</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Distance to the binned profile foreground</t>
+  </si>
+  <si>
+    <t>Bg_L</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,7 +1065,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,81 +1082,81 @@
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="G2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="G3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="G4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1161,15 +1164,15 @@
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="G6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1177,15 +1180,15 @@
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="D7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="G7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1193,15 +1196,15 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="G8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1209,19 +1212,19 @@
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1229,11 +1232,11 @@
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="G10" s="1" t="s">
         <v>110</v>
       </c>
@@ -1245,11 +1248,11 @@
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="G11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1261,11 +1264,11 @@
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="D12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="G12" s="1" t="s">
         <v>112</v>
       </c>
@@ -1277,13 +1280,13 @@
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1297,11 +1300,11 @@
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="G14" s="1" t="s">
         <v>114</v>
       </c>
@@ -1313,11 +1316,11 @@
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="D15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="G15" s="1" t="s">
         <v>115</v>
       </c>
@@ -1329,11 +1332,11 @@
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="G16" s="1" t="s">
         <v>116</v>
       </c>
@@ -1345,13 +1348,13 @@
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1365,11 +1368,11 @@
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="3"/>
       <c r="D18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="3"/>
       <c r="G18" s="1" t="s">
         <v>118</v>
       </c>
@@ -1381,11 +1384,11 @@
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="3"/>
       <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="3"/>
       <c r="G19" s="1" t="s">
         <v>119</v>
       </c>
@@ -1397,23 +1400,23 @@
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="3"/>
       <c r="D20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1421,43 +1424,43 @@
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="3"/>
       <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="3"/>
       <c r="D23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="3"/>
       <c r="D24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1465,43 +1468,43 @@
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
       <c r="D26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="3"/>
       <c r="D27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="3"/>
       <c r="D28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1509,43 +1512,43 @@
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="3"/>
       <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="3"/>
       <c r="D31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="3"/>
       <c r="D32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1553,31 +1556,31 @@
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="3"/>
       <c r="D34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="3"/>
       <c r="D35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="3"/>
       <c r="D36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1636,6 +1639,9 @@
     <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E28"/>
     <mergeCell ref="E29:E32"/>
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="H1:H4"/>
@@ -1652,9 +1658,6 @@
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/prediction-format.xlsx
+++ b/Data/prediction-format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,25 +1639,25 @@
     <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E16"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="E25:E28"/>
     <mergeCell ref="E29:E32"/>
     <mergeCell ref="E33:E36"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
